--- a/Peercopy.xlsx
+++ b/Peercopy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandu/Desktop/College files/Timetables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F4EA18-B6BB-8540-A5BB-DC043409A814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2847797E-4A76-3E46-A047-8DE0C99781A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32060" windowHeight="20500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="481">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -1468,6 +1468,9 @@
   <si>
     <t>EECE2141_VSPOE_7_ICT_524_E</t>
   </si>
+  <si>
+    <t>EECE4001_ECE_7_ICT_409_A</t>
+  </si>
 </sst>
 </file>
 
@@ -61262,8 +61265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85:I85"/>
+    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -61747,9 +61750,11 @@
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="G18" s="19" t="s">
+        <v>480</v>
+      </c>
       <c r="H18" s="19" t="s">
-        <v>173</v>
+        <v>480</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
